--- a/data/abstracts.xlsx
+++ b/data/abstracts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dario/GitHub/SPT2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0E0895-B296-DF4E-924E-BF783BB95860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EF8043-7518-F446-87E2-0F50925E52A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7500" yWindow="500" windowWidth="23220" windowHeight="15640" activeTab="1" xr2:uid="{027D1514-6484-C444-B62A-E2996971D942}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="2500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="2503">
   <si>
     <t>keyword</t>
   </si>
@@ -8374,12 +8374,21 @@
   <si>
     <t xml:space="preserve"> Faulkner</t>
   </si>
+  <si>
+    <t>Van Heuveln</t>
+  </si>
+  <si>
+    <t>Bram</t>
+  </si>
+  <si>
+    <t>AI imagines machines that share our cognitive abilities. The frame problem begins here. It is the problem of what makes us cognitively special — of what makes us so smart. It is, therefore, a problem concerning rationality, or good reasoning. But where this good reasoning is applied in the frame problem is a bit surprising. The problem’s central issue involves the notion of change: all living things live in changing environments; and among thinking things, some of the most important changes that they must deal with are changes they themselves bring about — moving from place to place, for example. However, more than change is involved. To successfully handle any change, thinking things must update what they believe after experiencing a change.  Perhaps the major difficulty wrought by the frame problem is questioning how this updating should be carried out. The frame problem is a complicated problem where the power of our imagination to dream of machines skilled at operating in complicated environments runs up against engineering and computational limits. The Frame problem was never resolved and presents a strong limit to what the current crop of AI applications can achieve.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8436,6 +8445,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF101339"/>
+      <name val="Palatino"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -8553,7 +8574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8665,6 +8686,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16873,10 +16896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444329A8-3C31-1944-88B8-5DC3C496399B}">
-  <dimension ref="A1:W175"/>
+  <dimension ref="A1:W177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1"/>
@@ -19448,6 +19471,23 @@
       </c>
       <c r="D175" s="36"/>
     </row>
+    <row r="176" spans="1:4" ht="27" customHeight="1">
+      <c r="A176" s="61" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B176" s="61" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C176" s="61" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D176" s="61" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="27" customHeight="1">
+      <c r="A177" s="62"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
